--- a/data/trans_dic/P2B_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2B_R-Provincia-trans_dic.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,05; 30,63</t>
+          <t>18,22; 30,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>39,96; 52,68</t>
+          <t>39,03; 53,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,71; 15,12</t>
+          <t>7,46; 14,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>29,08; 43,33</t>
+          <t>28,96; 42,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>44,71; 57,65</t>
+          <t>44,42; 57,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,53; 15,78</t>
+          <t>9,98; 16,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>25,82; 34,98</t>
+          <t>25,38; 35,97</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>43,37; 53,11</t>
+          <t>43,92; 53,8</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,43; 14,47</t>
+          <t>9,45; 14,47</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,96; 23,24</t>
+          <t>15,05; 23,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>43,02; 53,49</t>
+          <t>42,74; 53,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,84; 23,97</t>
+          <t>15,86; 24,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,6; 26,36</t>
+          <t>16,44; 26,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,4; 28,02</t>
+          <t>20,02; 28,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>48,1; 57,9</t>
+          <t>48,25; 57,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,83; 27,98</t>
+          <t>19,46; 27,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,53; 30,94</t>
+          <t>23,71; 31,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,15; 24,95</t>
+          <t>19,0; 24,71</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>46,9; 54,44</t>
+          <t>47,16; 54,52</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18,71; 24,91</t>
+          <t>18,74; 24,75</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>21,56; 27,87</t>
+          <t>21,58; 27,76</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,12; 24,2</t>
+          <t>13,74; 24,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>42,75; 54,48</t>
+          <t>42,19; 54,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,16; 30,73</t>
+          <t>19,83; 31,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,2; 24,88</t>
+          <t>15,04; 24,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,35; 36,97</t>
+          <t>26,33; 37,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>48,79; 60,79</t>
+          <t>49,05; 60,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,48; 35,9</t>
+          <t>24,95; 36,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,3; 27,95</t>
+          <t>19,15; 27,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,09; 29,61</t>
+          <t>22,37; 29,61</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>47,26; 55,84</t>
+          <t>47,57; 56,5</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>23,6; 31,7</t>
+          <t>24,04; 31,65</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,23; 24,54</t>
+          <t>18,12; 24,68</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,32; 18,64</t>
+          <t>10,11; 18,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>53,78; 62,69</t>
+          <t>54,01; 62,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,37; 46,64</t>
+          <t>34,66; 46,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,45; 35,49</t>
+          <t>21,38; 34,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,24; 28,45</t>
+          <t>19,07; 27,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>57,43; 65,45</t>
+          <t>57,05; 64,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>41,19; 52,55</t>
+          <t>41,54; 52,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,81; 29,1</t>
+          <t>19,66; 29,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,02; 22,6</t>
+          <t>16,35; 22,61</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>56,98; 63,06</t>
+          <t>56,64; 62,53</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>39,81; 48,25</t>
+          <t>40,15; 48,2</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>21,51; 29,71</t>
+          <t>21,86; 29,74</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>20,32; 35,38</t>
+          <t>20,6; 34,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>44,98; 60,69</t>
+          <t>45,11; 60,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>52,08; 66,63</t>
+          <t>52,57; 67,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,18; 31,31</t>
+          <t>17,07; 32,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>18,2; 30,96</t>
+          <t>18,24; 31,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>48,27; 62,91</t>
+          <t>47,44; 62,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>57,86; 71,26</t>
+          <t>57,81; 71,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,53; 24,51</t>
+          <t>11,41; 24,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21,2; 30,59</t>
+          <t>21,09; 30,67</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>49,27; 59,73</t>
+          <t>49,14; 59,32</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>57,07; 66,99</t>
+          <t>56,81; 67,09</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,19; 24,86</t>
+          <t>15,36; 25,4</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,77; 20,23</t>
+          <t>10,68; 20,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>46,07; 59,96</t>
+          <t>45,75; 58,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>35,32; 49,42</t>
+          <t>35,92; 50,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23,5; 33,92</t>
+          <t>22,9; 33,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,2; 26,76</t>
+          <t>16,06; 27,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>41,43; 53,36</t>
+          <t>41,1; 54,15</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>37,46; 52,1</t>
+          <t>37,71; 51,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>29,08; 39,02</t>
+          <t>29,35; 39,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,71; 21,92</t>
+          <t>14,3; 21,93</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>45,5; 54,56</t>
+          <t>45,54; 54,47</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>38,15; 48,28</t>
+          <t>38,69; 48,65</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>27,42; 35,07</t>
+          <t>27,06; 34,67</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,02; 24,86</t>
+          <t>16,34; 24,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>43,37; 52,57</t>
+          <t>43,58; 52,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>31,41; 40,95</t>
+          <t>31,36; 40,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,87; 15,43</t>
+          <t>9,02; 15,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,1; 29,79</t>
+          <t>22,68; 30,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>43,67; 51,8</t>
+          <t>43,88; 52,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>40,06; 48,89</t>
+          <t>40,07; 48,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>12,53; 58,84</t>
+          <t>12,51; 60,97</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>20,87; 26,21</t>
+          <t>20,98; 26,38</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>44,63; 50,64</t>
+          <t>45,19; 51,05</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>37,77; 44,38</t>
+          <t>37,63; 44,09</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>12,08; 48,4</t>
+          <t>12,05; 50,84</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>25,98; 33,58</t>
+          <t>26,41; 34,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>48,3; 56,76</t>
+          <t>47,99; 56,26</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>56,05; 64,34</t>
+          <t>56,48; 64,88</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>35,32; 44,68</t>
+          <t>35,37; 44,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>22,48; 29,23</t>
+          <t>22,9; 29,72</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>51,74; 59,62</t>
+          <t>52,1; 59,9</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>61,32; 69,11</t>
+          <t>61,13; 69,33</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>43,98; 51,34</t>
+          <t>43,83; 51,3</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>25,34; 30,62</t>
+          <t>25,38; 30,46</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>51,42; 57,22</t>
+          <t>51,4; 56,99</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>60,08; 65,79</t>
+          <t>60,37; 65,97</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>41,36; 47,29</t>
+          <t>41,35; 47,08</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>20,06; 23,58</t>
+          <t>20,2; 23,55</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>49,73; 53,75</t>
+          <t>50,03; 53,87</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>39,59; 43,77</t>
+          <t>39,67; 43,69</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>21,96; 25,85</t>
+          <t>22,02; 25,87</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>24,55; 27,77</t>
+          <t>24,38; 27,69</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>52,37; 55,84</t>
+          <t>52,29; 56,03</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>45,03; 48,71</t>
+          <t>45,08; 48,89</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>27,01; 39,35</t>
+          <t>27,04; 39,87</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>23,05; 25,45</t>
+          <t>22,92; 25,37</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>51,58; 54,35</t>
+          <t>51,66; 54,35</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>43,03; 45,77</t>
+          <t>43,19; 45,93</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>25,41; 33,43</t>
+          <t>25,55; 33,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2B_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2B_R-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,22; 30,45</t>
+          <t>18,03; 30,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>39,03; 53,02</t>
+          <t>38,59; 53,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>28,96; 42,76</t>
+          <t>29,12; 43,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>44,42; 57,57</t>
+          <t>43,8; 56,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>25,38; 35,97</t>
+          <t>25,48; 35,06</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>43,92; 53,8</t>
+          <t>43,5; 52,94</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,05; 23,63</t>
+          <t>15,19; 23,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>42,74; 53,7</t>
+          <t>42,69; 53,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,86; 24,08</t>
+          <t>15,8; 23,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,02; 28,15</t>
+          <t>20,38; 28,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>48,25; 57,77</t>
+          <t>47,94; 57,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,46; 27,72</t>
+          <t>19,94; 27,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,0; 24,71</t>
+          <t>18,95; 25,02</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>47,16; 54,52</t>
+          <t>47,15; 54,18</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18,74; 24,75</t>
+          <t>18,97; 24,74</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,74; 24,22</t>
+          <t>14,08; 23,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>42,19; 54,34</t>
+          <t>42,18; 55,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,83; 31,28</t>
+          <t>19,8; 31,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,33; 37,6</t>
+          <t>25,86; 37,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>49,05; 60,45</t>
+          <t>48,53; 60,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,95; 36,2</t>
+          <t>25,3; 36,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,37; 29,61</t>
+          <t>22,29; 29,81</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>47,57; 56,5</t>
+          <t>47,45; 56,16</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>24,04; 31,65</t>
+          <t>24,06; 32,13</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,11; 18,66</t>
+          <t>10,65; 18,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>54,01; 62,85</t>
+          <t>54,1; 62,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,66; 46,74</t>
+          <t>34,74; 46,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,07; 27,79</t>
+          <t>18,97; 27,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>57,05; 64,93</t>
+          <t>56,75; 65,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>41,54; 52,4</t>
+          <t>41,46; 52,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,35; 22,61</t>
+          <t>16,22; 22,56</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>56,64; 62,53</t>
+          <t>56,74; 62,61</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>40,15; 48,2</t>
+          <t>39,87; 48,29</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>20,6; 34,59</t>
+          <t>20,2; 34,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>45,11; 60,98</t>
+          <t>45,42; 60,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>52,57; 67,08</t>
+          <t>51,53; 66,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>18,24; 31,06</t>
+          <t>18,15; 31,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>47,44; 62,09</t>
+          <t>48,21; 61,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>57,81; 71,25</t>
+          <t>57,61; 70,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21,09; 30,67</t>
+          <t>20,82; 30,77</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>49,14; 59,32</t>
+          <t>48,91; 59,14</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>56,81; 67,09</t>
+          <t>57,08; 67,36</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,68; 20,31</t>
+          <t>10,87; 20,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>45,75; 58,94</t>
+          <t>45,68; 59,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>35,92; 50,0</t>
+          <t>35,88; 49,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,06; 27,3</t>
+          <t>16,12; 27,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>41,1; 54,15</t>
+          <t>41,33; 53,92</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>37,71; 51,27</t>
+          <t>38,41; 52,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,3; 21,93</t>
+          <t>14,93; 22,36</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>45,54; 54,47</t>
+          <t>45,1; 54,31</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>38,69; 48,65</t>
+          <t>38,89; 48,82</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,34; 24,33</t>
+          <t>16,29; 24,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>43,58; 52,8</t>
+          <t>43,4; 52,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>31,36; 40,86</t>
+          <t>31,73; 40,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,68; 30,05</t>
+          <t>22,21; 29,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>43,88; 52,16</t>
+          <t>43,57; 52,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>40,07; 48,45</t>
+          <t>40,28; 49,09</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>20,98; 26,38</t>
+          <t>20,87; 26,4</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>45,19; 51,05</t>
+          <t>44,74; 50,95</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>37,63; 44,09</t>
+          <t>37,44; 43,92</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>26,41; 34,0</t>
+          <t>26,37; 34,1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>47,99; 56,26</t>
+          <t>47,7; 56,16</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>56,48; 64,88</t>
+          <t>56,51; 64,07</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>22,9; 29,72</t>
+          <t>22,77; 29,55</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>52,1; 59,9</t>
+          <t>52,05; 59,82</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>61,13; 69,33</t>
+          <t>61,21; 68,69</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>25,38; 30,46</t>
+          <t>25,28; 30,6</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>51,4; 56,99</t>
+          <t>51,53; 57,27</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>60,37; 65,97</t>
+          <t>60,2; 65,63</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>20,2; 23,55</t>
+          <t>20,26; 23,58</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>50,03; 53,87</t>
+          <t>49,81; 53,81</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>39,67; 43,69</t>
+          <t>39,43; 43,5</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>24,38; 27,69</t>
+          <t>24,67; 27,99</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>52,29; 56,03</t>
+          <t>52,33; 56,06</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>45,08; 48,89</t>
+          <t>45,1; 49,09</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>22,92; 25,37</t>
+          <t>23,04; 25,22</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>51,66; 54,35</t>
+          <t>51,69; 54,36</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>43,19; 45,93</t>
+          <t>43,05; 45,82</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">

--- a/data/trans_dic/P2B_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2B_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,03; 30,84</t>
+          <t>18,05; 30,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>38,59; 53,13</t>
+          <t>39,96; 52,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,46; 14,96</t>
+          <t>7,71; 15,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>29,12; 43,09</t>
+          <t>29,08; 43,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>43,8; 56,71</t>
+          <t>44,71; 57,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,98; 16,06</t>
+          <t>9,53; 15,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>25,48; 35,06</t>
+          <t>25,82; 34,98</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>43,5; 52,94</t>
+          <t>43,37; 53,11</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,45; 14,47</t>
+          <t>9,43; 14,47</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,19; 23,53</t>
+          <t>14,96; 23,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>42,69; 53,42</t>
+          <t>43,02; 53,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,8; 23,91</t>
+          <t>15,84; 23,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,44; 26,13</t>
+          <t>16,6; 26,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,38; 28,26</t>
+          <t>20,4; 28,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>47,94; 57,98</t>
+          <t>48,1; 57,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,94; 27,94</t>
+          <t>19,83; 27,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,71; 31,55</t>
+          <t>23,53; 30,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,95; 25,02</t>
+          <t>19,15; 24,95</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>47,15; 54,18</t>
+          <t>46,9; 54,44</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18,97; 24,74</t>
+          <t>18,71; 24,91</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>21,58; 27,76</t>
+          <t>21,56; 27,87</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,08; 23,63</t>
+          <t>14,12; 24,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>42,18; 55,14</t>
+          <t>42,75; 54,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,8; 31,02</t>
+          <t>20,16; 30,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,04; 24,0</t>
+          <t>15,2; 24,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>25,86; 37,22</t>
+          <t>26,35; 36,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>48,53; 60,83</t>
+          <t>48,79; 60,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>25,3; 36,28</t>
+          <t>24,48; 35,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,15; 27,35</t>
+          <t>19,3; 27,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,29; 29,81</t>
+          <t>22,09; 29,61</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>47,45; 56,16</t>
+          <t>47,26; 55,84</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>24,06; 32,13</t>
+          <t>23,6; 31,7</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,12; 24,68</t>
+          <t>18,23; 24,54</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,65; 18,92</t>
+          <t>10,32; 18,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>54,1; 62,67</t>
+          <t>53,78; 62,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,74; 46,44</t>
+          <t>34,37; 46,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,38; 34,86</t>
+          <t>21,45; 35,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,97; 27,86</t>
+          <t>19,24; 28,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>56,75; 65,4</t>
+          <t>57,43; 65,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>41,46; 52,72</t>
+          <t>41,19; 52,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,66; 29,29</t>
+          <t>19,81; 29,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,22; 22,56</t>
+          <t>16,02; 22,6</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>56,74; 62,61</t>
+          <t>56,98; 63,06</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>39,87; 48,29</t>
+          <t>39,81; 48,25</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>21,86; 29,74</t>
+          <t>21,51; 29,71</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>20,2; 34,97</t>
+          <t>20,32; 35,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>45,42; 60,93</t>
+          <t>44,98; 60,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>51,53; 66,54</t>
+          <t>52,08; 66,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,07; 32,09</t>
+          <t>17,18; 31,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>18,15; 31,03</t>
+          <t>18,2; 30,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>48,21; 61,62</t>
+          <t>48,27; 62,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>57,61; 70,75</t>
+          <t>57,86; 71,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,41; 24,21</t>
+          <t>11,53; 24,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>20,82; 30,77</t>
+          <t>21,2; 30,59</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>48,91; 59,14</t>
+          <t>49,27; 59,73</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>57,08; 67,36</t>
+          <t>57,07; 66,99</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,36; 25,4</t>
+          <t>15,19; 24,86</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,87; 20,43</t>
+          <t>10,77; 20,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>45,68; 59,86</t>
+          <t>46,07; 59,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>35,88; 49,78</t>
+          <t>35,32; 49,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>22,9; 33,55</t>
+          <t>23,5; 33,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,12; 27,28</t>
+          <t>16,2; 26,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>41,33; 53,92</t>
+          <t>41,43; 53,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>38,41; 52,04</t>
+          <t>37,46; 52,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>29,35; 39,24</t>
+          <t>29,08; 39,02</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,93; 22,36</t>
+          <t>14,71; 21,92</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>45,1; 54,31</t>
+          <t>45,5; 54,56</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>38,89; 48,82</t>
+          <t>38,15; 48,28</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>27,06; 34,67</t>
+          <t>27,42; 35,07</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,29; 24,16</t>
+          <t>16,02; 24,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>43,4; 52,62</t>
+          <t>43,37; 52,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>31,73; 40,63</t>
+          <t>31,41; 40,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,02; 15,61</t>
+          <t>8,87; 15,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,21; 29,86</t>
+          <t>22,1; 29,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>43,57; 52,09</t>
+          <t>43,67; 51,8</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>40,28; 49,09</t>
+          <t>40,06; 48,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>12,51; 60,97</t>
+          <t>12,53; 58,84</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>20,87; 26,4</t>
+          <t>20,87; 26,21</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>44,74; 50,95</t>
+          <t>44,63; 50,64</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>37,44; 43,92</t>
+          <t>37,77; 44,38</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>12,05; 50,84</t>
+          <t>12,08; 48,4</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>26,37; 34,1</t>
+          <t>25,98; 33,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>47,7; 56,16</t>
+          <t>48,3; 56,76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>56,51; 64,07</t>
+          <t>56,05; 64,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>35,37; 44,58</t>
+          <t>35,32; 44,68</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>22,77; 29,55</t>
+          <t>22,48; 29,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>52,05; 59,82</t>
+          <t>51,74; 59,62</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>61,21; 68,69</t>
+          <t>61,32; 69,11</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>43,83; 51,3</t>
+          <t>43,98; 51,34</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>25,28; 30,6</t>
+          <t>25,34; 30,62</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>51,53; 57,27</t>
+          <t>51,42; 57,22</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>60,2; 65,63</t>
+          <t>60,08; 65,79</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>41,35; 47,08</t>
+          <t>41,36; 47,29</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>20,26; 23,58</t>
+          <t>20,06; 23,58</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>49,81; 53,81</t>
+          <t>49,73; 53,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>39,43; 43,5</t>
+          <t>39,59; 43,77</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>22,02; 25,87</t>
+          <t>21,96; 25,85</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>24,67; 27,99</t>
+          <t>24,55; 27,77</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>52,33; 56,06</t>
+          <t>52,37; 55,84</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>45,1; 49,09</t>
+          <t>45,03; 48,71</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>27,04; 39,87</t>
+          <t>27,01; 39,35</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>23,04; 25,22</t>
+          <t>23,05; 25,45</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>51,69; 54,36</t>
+          <t>51,58; 54,35</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>43,05; 45,82</t>
+          <t>43,03; 45,77</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>25,55; 33,25</t>
+          <t>25,41; 33,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2B_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2B_R-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,13%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,44%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>12,31%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,29%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>11,75%</t>
+          <t>11,11%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>52,13; 65,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,71; 15,12</t>
+          <t>6,8; 14,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>53,22; 66,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,53; 15,78</t>
+          <t>9,18; 15,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>54,92; 63,58</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,43; 14,47</t>
+          <t>8,79; 13,71</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21,16%</t>
+          <t>20,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>27,41%</t>
+          <t>27,13%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>24,69%</t>
+          <t>24,2%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,6; 26,36</t>
+          <t>16,06; 25,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,53; 30,94</t>
+          <t>23,36; 30,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>21,56; 27,87</t>
+          <t>21,08; 27,32</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>19,34%</t>
+          <t>19,12%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>23,22%</t>
+          <t>23,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>21,48%</t>
+          <t>21,21%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,2; 24,88</t>
+          <t>15,06; 24,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,3; 27,95</t>
+          <t>19,05; 27,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,23; 24,54</t>
+          <t>18,06; 24,39</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>58,37%</t>
+          <t>57,8%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>27,98%</t>
+          <t>27,9%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>61,16%</t>
+          <t>62,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>24,43%</t>
+          <t>19,52%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>59,85%</t>
+          <t>60,27%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>25,85%</t>
+          <t>22,45%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>53,78; 62,69</t>
+          <t>52,38; 63,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,45; 35,49</t>
+          <t>21,55; 35,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>57,43; 65,45</t>
+          <t>57,06; 67,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,81; 29,1</t>
+          <t>10,77; 26,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>56,98; 63,06</t>
+          <t>56,26; 64,28</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>21,51; 29,71</t>
+          <t>14,89; 27,26</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>23,3%</t>
+          <t>23,21%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>19,12%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>20,66%</t>
+          <t>18,73%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,18; 31,31</t>
+          <t>17,18; 31,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,53; 24,51</t>
+          <t>6,91; 23,47</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,19; 24,86</t>
+          <t>10,36; 24,06</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>28,26%</t>
+          <t>28,4%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>34,09%</t>
+          <t>34,06%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23,5; 33,92</t>
+          <t>23,58; 34,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>29,08; 39,02</t>
+          <t>29,06; 38,9</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>27,42; 35,07</t>
+          <t>27,51; 35,16</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>11,81%</t>
+          <t>11,78%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>28,97%</t>
+          <t>39,57%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>22,01%</t>
+          <t>29,04%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,87; 15,43</t>
+          <t>8,77; 15,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>12,53; 58,84</t>
+          <t>12,48; 72,92</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>12,08; 48,4</t>
+          <t>11,94; 62,94</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>39,83%</t>
+          <t>39,68%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>47,69%</t>
+          <t>47,33%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>44,25%</t>
+          <t>43,94%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>35,32; 44,68</t>
+          <t>35,21; 44,49</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>43,98; 51,34</t>
+          <t>43,81; 51,03</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>41,36; 47,29</t>
+          <t>41,13; 46,96</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>23,87%</t>
+          <t>22,87%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>30,24%</t>
+          <t>30,85%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>27,49%</t>
+          <t>27,46%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>21,96; 25,85</t>
+          <t>20,99; 24,78</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>27,01; 39,35</t>
+          <t>24,81; 45,15</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>25,41; 33,43</t>
+          <t>23,83; 38,73</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2B_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2B_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,05; 30,63</t>
+          <t>18,64; 30,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>52,13; 65,68</t>
+          <t>51,99; 65,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>39,96; 52,68</t>
+          <t>39,45; 53,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,8; 14,22</t>
+          <t>6,83; 13,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>29,08; 43,33</t>
+          <t>28,37; 43,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>53,22; 66,0</t>
+          <t>52,27; 65,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>44,71; 57,65</t>
+          <t>44,03; 57,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,18; 15,36</t>
+          <t>9,36; 15,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>25,82; 34,98</t>
+          <t>25,5; 35,02</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>54,92; 63,58</t>
+          <t>54,54; 63,81</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>43,37; 53,11</t>
+          <t>43,52; 52,98</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,79; 13,71</t>
+          <t>8,79; 13,8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,96; 23,24</t>
+          <t>14,87; 23,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>43,02; 53,49</t>
+          <t>42,74; 53,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,84; 23,97</t>
+          <t>15,41; 23,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,06; 25,9</t>
+          <t>15,63; 25,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,4; 28,02</t>
+          <t>20,38; 28,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>48,1; 57,9</t>
+          <t>48,37; 58,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,83; 27,98</t>
+          <t>19,75; 28,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,36; 30,65</t>
+          <t>23,45; 31,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,15; 24,95</t>
+          <t>19,08; 24,81</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>46,9; 54,44</t>
+          <t>47,18; 54,3</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18,71; 24,91</t>
+          <t>19,29; 24,69</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>21,08; 27,32</t>
+          <t>21,51; 27,66</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,12; 24,2</t>
+          <t>13,83; 24,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>42,75; 54,48</t>
+          <t>42,23; 54,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,16; 30,73</t>
+          <t>19,7; 30,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,06; 24,67</t>
+          <t>14,68; 23,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,35; 36,97</t>
+          <t>26,48; 37,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>48,79; 60,79</t>
+          <t>49,05; 60,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,48; 35,9</t>
+          <t>24,9; 35,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,05; 27,7</t>
+          <t>19,25; 28,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,09; 29,61</t>
+          <t>22,0; 29,45</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>47,26; 55,84</t>
+          <t>47,48; 55,96</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>23,6; 31,7</t>
+          <t>24,17; 31,94</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,06; 24,39</t>
+          <t>18,08; 24,72</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,32; 18,64</t>
+          <t>10,46; 19,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>52,38; 63,25</t>
+          <t>51,79; 63,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,37; 46,64</t>
+          <t>34,72; 47,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,55; 35,42</t>
+          <t>21,32; 35,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,24; 28,45</t>
+          <t>18,59; 27,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>57,06; 67,45</t>
+          <t>57,37; 67,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>41,19; 52,55</t>
+          <t>42,09; 52,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,77; 26,12</t>
+          <t>11,14; 26,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,02; 22,6</t>
+          <t>16,37; 22,64</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>56,26; 64,28</t>
+          <t>56,45; 64,02</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>39,81; 48,25</t>
+          <t>40,34; 48,85</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,89; 27,26</t>
+          <t>15,14; 27,82</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>20,32; 35,38</t>
+          <t>20,99; 35,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>44,98; 60,69</t>
+          <t>45,71; 61,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>52,08; 66,63</t>
+          <t>52,03; 66,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,18; 31,15</t>
+          <t>16,65; 30,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>18,2; 30,96</t>
+          <t>18,67; 30,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>48,27; 62,91</t>
+          <t>47,89; 61,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>57,86; 71,26</t>
+          <t>57,83; 71,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,91; 23,47</t>
+          <t>7,14; 23,61</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21,2; 30,59</t>
+          <t>21,4; 30,81</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>49,27; 59,73</t>
+          <t>48,63; 59,44</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>57,07; 66,99</t>
+          <t>56,81; 67,06</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,36; 24,06</t>
+          <t>10,85; 23,94</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,77; 20,23</t>
+          <t>10,71; 20,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>46,07; 59,96</t>
+          <t>46,45; 59,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>35,32; 49,42</t>
+          <t>35,96; 50,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23,58; 34,11</t>
+          <t>23,02; 34,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,2; 26,76</t>
+          <t>16,52; 26,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>41,43; 53,36</t>
+          <t>41,13; 53,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>37,46; 52,1</t>
+          <t>37,76; 51,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>29,06; 38,9</t>
+          <t>29,36; 38,91</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,71; 21,92</t>
+          <t>14,74; 21,76</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>45,5; 54,56</t>
+          <t>45,17; 54,29</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>38,15; 48,28</t>
+          <t>38,28; 48,17</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>27,51; 35,16</t>
+          <t>27,81; 35,01</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,02; 24,86</t>
+          <t>16,56; 23,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>43,37; 52,57</t>
+          <t>43,16; 53,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>31,41; 40,95</t>
+          <t>30,62; 40,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,77; 15,83</t>
+          <t>8,54; 15,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,1; 29,79</t>
+          <t>22,24; 29,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>43,67; 51,8</t>
+          <t>43,66; 52,22</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>40,06; 48,89</t>
+          <t>39,94; 48,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>12,48; 72,92</t>
+          <t>12,29; 72,7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>20,87; 26,21</t>
+          <t>20,64; 26,12</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>44,63; 50,64</t>
+          <t>44,91; 50,66</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>37,77; 44,38</t>
+          <t>37,64; 44,07</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>11,94; 62,94</t>
+          <t>12,06; 63,88</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>25,98; 33,58</t>
+          <t>26,39; 34,21</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>48,3; 56,76</t>
+          <t>47,8; 56,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>56,05; 64,34</t>
+          <t>56,51; 64,31</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>35,21; 44,49</t>
+          <t>35,09; 44,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>22,48; 29,23</t>
+          <t>22,71; 29,72</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>51,74; 59,62</t>
+          <t>51,97; 59,67</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>61,32; 69,11</t>
+          <t>61,41; 68,96</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>43,81; 51,03</t>
+          <t>43,42; 51,03</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>25,34; 30,62</t>
+          <t>25,33; 30,47</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>51,42; 57,22</t>
+          <t>51,42; 57,04</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>60,08; 65,79</t>
+          <t>60,11; 65,69</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>41,13; 46,96</t>
+          <t>40,88; 46,55</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>20,06; 23,58</t>
+          <t>20,24; 23,52</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>49,73; 53,75</t>
+          <t>49,81; 53,79</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>39,59; 43,77</t>
+          <t>39,52; 43,46</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>20,99; 24,78</t>
+          <t>21,13; 24,95</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>24,55; 27,77</t>
+          <t>24,72; 27,85</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>52,37; 55,84</t>
+          <t>52,36; 55,89</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>45,03; 48,71</t>
+          <t>45,1; 48,91</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>24,81; 45,15</t>
+          <t>25,01; 46,79</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>23,05; 25,45</t>
+          <t>23,03; 25,45</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>51,58; 54,35</t>
+          <t>51,69; 54,52</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>43,03; 45,77</t>
+          <t>43,1; 45,9</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>23,83; 38,73</t>
+          <t>23,99; 38,28</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas que requieren dedicación o cuidados especiales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>45944</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>139098</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>104795</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>24929</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>71480</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>160381</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>126928</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>30907</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>117424</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>299479</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>231723</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>55837</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>35743; 58164</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>122319; 154912</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>89673; 122316</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>17175; 34884</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>56459; 86632</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>141055; 176748</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>110243; 143174</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>23493; 39611</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>99658; 136860</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>275467; 322295</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>207906; 253115</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>44176; 69321</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>71218</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>191147</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>75174</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>69683</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>107194</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>245238</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>105184</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>112490</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>178412</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>436384</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>180358</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>182173</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>55619; 87751</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>170105; 213880</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>59055; 91859</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>52867; 87861</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>90668; 125596</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>223069; 267637</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>88532; 125643</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>97225; 129549</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>156264; 203186</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>405403; 466563</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>160386; 205320</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>161925; 208261</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>45256</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>128777</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>59083</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>43404</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>90321</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>162973</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>81362</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>61323</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>135578</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>291750</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>140445</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>104727</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>33276; 58719</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>112054; 144363</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>46478; 71181</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>33318; 54472</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>75728; 107034</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>145762; 180273</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>66948; 96496</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>51328; 74823</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>115833; 155093</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>267071; 314783</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>122010; 161236</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>89266; 122026</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>38178</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>181626</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>110237</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>58802</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>74995</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>219885</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>76294</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>113173</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>401512</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>270656</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>135096</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>27901; 50762</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>162729; 200998</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>94377; 127916</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>44942; 74316</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>59805; 89631</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>201921; 238362</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>143376; 180231</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>43539; 103678</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>96345; 133196</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>376084; 426511</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>247063; 299229</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>91095; 167363</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>41376</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>93679</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>102860</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>22383</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>45477</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>111864</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>120085</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>31034</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>86852</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>205543</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>222945</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>53417</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>31866; 53469</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>80240; 107831</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>89835; 115364</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>16057; 29779</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>34939; 57785</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>97247; 125748</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>107700; 132436</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>13483; 44580</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>72520; 104419</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>184110; 225062</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>203876; 240674</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>30941; 68305</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>32374</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>120894</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>81940</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>57830</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>47830</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>121484</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>93762</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>70800</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>80204</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>242378</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>175702</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>128630</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>22952; 44572</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>107000; 137052</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>69713; 97232</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>46867; 69542</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>37408; 59952</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>105071; 136833</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>79566; 109066</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>61025; 80880</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>64941; 95910</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>219456; 263776</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>154863; 194888</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>114451; 144068</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>88618</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>251139</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>158514</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>48547</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>140924</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>288340</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>246564</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>266994</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>229541</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>539479</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>405078</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>315542</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>73017; 105414</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>226077; 277676</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>134153; 179116</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>35171; 64012</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>119754; 160311</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>263575; 315238</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>221318; 271313</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>82912; 490499</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>202169; 255882</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>506342; 571162</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>373461; 437256</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>131054; 694171</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>661</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>748</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>569</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>175127</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>317290</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>347516</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>170592</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>174299</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>392282</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>452515</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>255117</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>349426</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>709572</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>800031</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>425709</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>154255; 199917</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>289522; 341509</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>325557; 370491</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>150836; 190175</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>152034; 199006</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>364422; 418428</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>426095; 478516</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>234017; 275031</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>317622; 382156</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>672019; 745423</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>763343; 834205</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>396110; 450983</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>1335</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>727</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>1583</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>1306</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>1166</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1251</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>2918</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>2302</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>1745</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>538090</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>1423649</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>1040119</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>496170</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>752521</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>1702448</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>1386818</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>904961</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1290610</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>3126097</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>2426937</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>1401131</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>498707; 579750</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>1368979; 1478154</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>987571; 1086042</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>458338; 541364</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>710346; 800129</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>1645976; 1756874</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>1331846; 1444516</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>733652; 1372674</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>1229084; 1358587</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>3045590; 3212455</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>2350037; 2502291</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>1224278; 1953711</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>